--- a/Data/sib-200_labels.xlsx
+++ b/Data/sib-200_labels.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fred/Desktop/Research/My Papers/Cross-Lingual Prompt Tuning 2/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E506C-4B83-AC42-8A25-8AD74BDCABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E61F46E-880D-D44D-8C48-38B45F73D021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15540" xr2:uid="{369DA3F1-0D23-DD48-9B86-44E7747DD007}"/>
   </bookViews>
